--- a/spreadsheet/macrofree/sql_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/sql_checklist.ko.xlsx
@@ -1219,7 +1219,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>데이터, 로그 및 tempdb 파일을 별도의 드라이브에 배치</t>
+          <t>데이터, 로그 및 tempdb 파일을 별도의 드라이브에 저장</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>프리미엄 SSD는 더 나은 성능과 더 짧은 대기 시간을 얻기 위해 항상 SQL Server 최소로 권장됩니다. P30 및 P40은 디스크 캐싱이 4TiB 이상의 디스크(P50 이상)에 대해 지원되지 않으며 최적의 가격 대비 성능 비율을 제공하기 때문에 권장됩니다</t>
+          <t>프리미엄 SSD는 더 나은 성능과 더 짧은 대기 시간을 얻기 위해 항상 SQL Server 최소로 권장됩니다. P30 및 P40은 4TiB 이상의 디스크(P50 이상)에는 디스크 캐싱이 지원되지 않으며 최적의 가격 대비 성능 비율을 제공하기 때문에 권장됩니다</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>데이터 파일 디스크의 경우 호스트 캐싱을 읽기 전용으로 설정하고 로그 파일 디스크의 경우 없음으로 설정합니다.</t>
+          <t>데이터 파일 디스크의 경우 호스트 캐싱을 읽기 전용으로, 로그 파일 디스크의 경우 없음으로 설정합니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Azure 가상 머신에서 클러스터는 부하 분산 장치를 사용하여 한 번에 하나의 클러스터 노드에 있어야 하는 IP 주소를 보유합니다. 이 솔루션에서 부하 분산 장치는 SQL Server VM이 단일 서브넷에 있을 때 Always On 가용성 그룹에 대한 VNN(가상 네트워크 이름) 수신기의 IP 주소를 보유합니다.</t>
+          <t>Azure 가상 머신에서 클러스터는 부하 분산 장치를 사용하여 한 번에 하나의 클러스터 노드에 있어야 하는 IP 주소를 보유합니다. 이 솔루션에서 부하 분산 장치는 SQL Server VM이 단일 서브넷에 있는 경우 Always On 가용성 그룹에 대한 VNN(가상 네트워크 이름) 수신기의 IP 주소를 보유합니다.</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>제한된 vCPU VM(가상 머신)은 vCPU 수를 원래 VM 크기의 절반 또는 1/4로 제한할 수 있는 VM 유형입니다. 이를 통해 고객은 소프트웨어 라이선스 비용을 절감하는 동시에 동일한 메모리, 스토리지 및 I/O 대역폭을 유지할 수 있습니다</t>
+          <t>제한된 vCPU VM(가상 머신)은 vCPU 수를 원래 VM 크기의 절반 또는 1/4로 제한할 수 있는 VM 유형입니다. 이를 통해 고객은 동일한 메모리, 스토리지 및 I/O 대역폭을 유지하면서 소프트웨어 라이선스 비용을 절감할 수 있습니다</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>관리되는 인스턴스를 호스트하는 vnet 및 서브넷을 구성하는 데에는 추가 요구 사항이 있습니다.</t>
+          <t>관리되는 인스턴스를 호스트하는 vnet 및 서브넷을 구성하는 데 추가 요구 사항이 있습니다.</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="D58" s="21" t="inlineStr">
         <is>
-          <t>원본에서 대상으로 데이터 변경 내용을 지속적으로 복제/동기화하는 마이그레이션 옵션을 사용하는 경우 원본 데이터 및 스키마가 변경되고 대상에서 드리프트될 수 있습니다. 데이터를 동기화하는 동안 원본의 모든 변경 내용이 캡처되어 마이그레이션 프로세스 중에 대상에 적용되는지 확인합니다.</t>
+          <t>원본에서 대상으로 데이터 변경 내용을 지속적으로 복제/동기화하는 마이그레이션 옵션을 사용하는 경우 원본 데이터 및 스키마가 변경되고 대상에서 표류할 수 있습니다. 데이터를 동기화하는 동안 원본의 모든 변경 내용이 캡처되어 마이그레이션 프로세스 중에 대상에 적용되는지 확인합니다.</t>
         </is>
       </c>
       <c r="E58" s="21" t="inlineStr">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t>프로덕션에 배포하기 전에 응용 프로그램이 장애 조치(failover) 복원력이 있는지 확인하면 프로덕션에서 응용 프로그램 오류의 위험을 완화하는 데 도움이 되며 고객의 응용 프로그램 가용성에 기여할 수 있습니다.</t>
+          <t>프로덕션에 배포하기 전에 응용 프로그램이 장애 조치(failover) 복원력이 있는지 확인하면 프로덕션에서 응용 프로그램 오류의 위험을 완화하는 데 도움이 되며 고객의 응용 프로그램 가용성에 기여합니다.</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
